--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsy_666\Desktop\无协2.0备份\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4575F95-8D7A-4386-A527-976EF12C0227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D99F9CA-2DCC-467D-AEE1-C75FB72DDE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{E7BA0531-2F9F-44AA-98AE-1EF7A821DCE2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
   <si>
     <t>姓名</t>
   </si>
@@ -358,6 +358,10 @@
   </si>
   <si>
     <t>202511040510</t>
+  </si>
+  <si>
+    <t>宋一泽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -758,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB41367-D062-49AD-B4FF-3E9B1EB132DF}">
   <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1609,7 +1613,12 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="2"/>
+      <c r="A106" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" s="3">
+        <v>202511040375</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
